--- a/EntradaProductos_LETTA1.xlsx
+++ b/EntradaProductos_LETTA1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="13260"/>
+    <workbookView windowWidth="19160" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,14 +1113,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1178,9 +1178,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,23 +1202,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,9 +1222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,21 +1240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,6 +1254,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1270,36 +1277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1316,7 +1293,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,13 +1367,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,7 +1469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,7 +1481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,61 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,31 +1529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,25 +1541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,6 +1635,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1655,30 +1685,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,21 +1713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1732,157 +1723,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,13 +1899,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1923,39 +1923,39 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1964,19 +1964,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1985,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2000,7 +2000,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2010,7 +2009,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2019,19 +2018,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2389,9 +2388,9 @@
   <dimension ref="A1:XEX175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P148" sqref="P148:P169"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -23221,13 +23220,13 @@
       <c r="F155" s="16">
         <v>28</v>
       </c>
-      <c r="G155" s="42">
+      <c r="G155" s="41">
         <v>2</v>
       </c>
-      <c r="H155" s="43">
+      <c r="H155" s="42">
         <v>0</v>
       </c>
-      <c r="I155" s="46">
+      <c r="I155" s="45">
         <v>2</v>
       </c>
       <c r="J155" s="6"/>
@@ -23236,7 +23235,7 @@
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
-      <c r="P155" s="50"/>
+      <c r="P155" s="49"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="39"/>
       <c r="S155" s="39"/>
@@ -23261,13 +23260,13 @@
       <c r="F156" s="16">
         <v>28</v>
       </c>
-      <c r="G156" s="42">
+      <c r="G156" s="41">
         <v>5</v>
       </c>
-      <c r="H156" s="43">
+      <c r="H156" s="42">
         <v>0</v>
       </c>
-      <c r="I156" s="46">
+      <c r="I156" s="45">
         <v>5</v>
       </c>
       <c r="J156" s="6"/>
@@ -23276,7 +23275,7 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="P156" s="50"/>
+      <c r="P156" s="49"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="39"/>
       <c r="S156" s="39"/>
@@ -23301,13 +23300,13 @@
       <c r="F157" s="16">
         <v>28</v>
       </c>
-      <c r="G157" s="42">
+      <c r="G157" s="41">
         <v>3</v>
       </c>
-      <c r="H157" s="43">
+      <c r="H157" s="42">
         <v>0</v>
       </c>
-      <c r="I157" s="46">
+      <c r="I157" s="45">
         <v>3</v>
       </c>
       <c r="J157" s="6"/>
@@ -23316,7 +23315,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
-      <c r="P157" s="50"/>
+      <c r="P157" s="49"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="39"/>
       <c r="S157" s="39"/>
@@ -23324,89 +23323,79 @@
       <c r="U157" s="6"/>
       <c r="V157" s="39"/>
     </row>
-    <row r="158" s="4" customFormat="1" ht="20" customHeight="1" spans="1:24">
+    <row r="158" s="4" customFormat="1" ht="20" customHeight="1" spans="1:22">
       <c r="A158" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C158" s="41" t="s">
+      <c r="C158" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D158" s="41" t="s">
+      <c r="D158" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E158" s="41"/>
       <c r="F158" s="16">
         <v>25</v>
       </c>
-      <c r="G158" s="44">
+      <c r="G158" s="43">
         <v>5</v>
       </c>
-      <c r="H158" s="45">
+      <c r="H158" s="44">
         <v>0</v>
       </c>
-      <c r="I158" s="47">
+      <c r="I158" s="46">
         <v>0</v>
       </c>
       <c r="J158" s="16"/>
-      <c r="K158" s="48"/>
-      <c r="L158" s="49"/>
-      <c r="M158" s="51"/>
-      <c r="N158" s="52"/>
-      <c r="O158" s="49"/>
-      <c r="P158" s="52"/>
-      <c r="Q158" s="53"/>
-      <c r="R158" s="41"/>
-      <c r="S158" s="41"/>
-      <c r="T158" s="53"/>
-      <c r="U158" s="53"/>
-      <c r="V158" s="53"/>
-      <c r="W158" s="41"/>
-      <c r="X158" s="41"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="48"/>
+      <c r="M158" s="50"/>
+      <c r="N158" s="51"/>
+      <c r="O158" s="48"/>
+      <c r="P158" s="51"/>
+      <c r="Q158" s="52"/>
+      <c r="T158" s="52"/>
+      <c r="U158" s="52"/>
+      <c r="V158" s="52"/>
     </row>
-    <row r="159" s="4" customFormat="1" ht="20" customHeight="1" spans="1:24">
+    <row r="159" s="4" customFormat="1" ht="20" customHeight="1" spans="1:22">
       <c r="A159" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C159" s="41" t="s">
+      <c r="C159" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D159" s="41" t="s">
+      <c r="D159" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E159" s="41"/>
       <c r="F159" s="16">
         <v>25</v>
       </c>
-      <c r="G159" s="44">
+      <c r="G159" s="43">
         <v>1</v>
       </c>
-      <c r="H159" s="45">
+      <c r="H159" s="44">
         <v>0</v>
       </c>
-      <c r="I159" s="47">
+      <c r="I159" s="46">
         <v>1</v>
       </c>
       <c r="J159" s="16"/>
-      <c r="K159" s="48"/>
-      <c r="L159" s="49"/>
-      <c r="M159" s="51"/>
-      <c r="N159" s="52"/>
-      <c r="O159" s="49"/>
-      <c r="P159" s="52"/>
-      <c r="Q159" s="53"/>
-      <c r="R159" s="41"/>
-      <c r="S159" s="41"/>
-      <c r="T159" s="53"/>
-      <c r="U159" s="53"/>
-      <c r="V159" s="53"/>
-      <c r="W159" s="41"/>
-      <c r="X159" s="41"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="48"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="51"/>
+      <c r="O159" s="48"/>
+      <c r="P159" s="51"/>
+      <c r="Q159" s="52"/>
+      <c r="T159" s="52"/>
+      <c r="U159" s="52"/>
+      <c r="V159" s="52"/>
     </row>
     <row r="160" s="4" customFormat="1" ht="14.8" customHeight="1" spans="1:22">
       <c r="A160" s="40" t="s">
@@ -23431,7 +23420,7 @@
       <c r="H160" s="18">
         <v>0</v>
       </c>
-      <c r="I160" s="46">
+      <c r="I160" s="45">
         <v>1</v>
       </c>
       <c r="J160" s="6"/>
@@ -23440,7 +23429,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
-      <c r="P160" s="50"/>
+      <c r="P160" s="49"/>
       <c r="Q160" s="39"/>
       <c r="R160" s="39"/>
       <c r="S160" s="39"/>
@@ -23468,10 +23457,10 @@
       <c r="G161" s="39">
         <v>2</v>
       </c>
-      <c r="H161" s="43">
+      <c r="H161" s="42">
         <v>0</v>
       </c>
-      <c r="I161" s="46">
+      <c r="I161" s="45">
         <v>2</v>
       </c>
       <c r="J161" s="6"/>
@@ -23480,7 +23469,7 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
-      <c r="P161" s="50"/>
+      <c r="P161" s="49"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="39"/>
       <c r="S161" s="39"/>
@@ -23511,7 +23500,7 @@
       <c r="H162" s="18">
         <v>0</v>
       </c>
-      <c r="I162" s="46">
+      <c r="I162" s="45">
         <v>1</v>
       </c>
       <c r="J162" s="6"/>
@@ -23520,7 +23509,7 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" s="50"/>
+      <c r="P162" s="49"/>
       <c r="Q162" s="39"/>
       <c r="R162" s="39"/>
       <c r="S162" s="39"/>
@@ -23551,7 +23540,7 @@
       <c r="H163" s="18">
         <v>0</v>
       </c>
-      <c r="I163" s="46">
+      <c r="I163" s="45">
         <v>2</v>
       </c>
       <c r="J163" s="6"/>
@@ -23560,7 +23549,7 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" s="50"/>
+      <c r="P163" s="49"/>
       <c r="Q163" s="39"/>
       <c r="R163" s="39"/>
       <c r="S163" s="39"/>
